--- a/story/Activity Story 活动剧情/act12d6 Ceobe's Fungimist 刻俄柏的灰蕈迷境 統合戦略-ケオベの茸狩迷界-/level_act12d6_ending_3.xlsx
+++ b/story/Activity Story 活动剧情/act12d6 Ceobe's Fungimist 刻俄柏的灰蕈迷境 統合戦略-ケオベの茸狩迷界-/level_act12d6_ending_3.xlsx
@@ -136,7 +136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">As she steps towards the deep sky, the scenery instantly changes, and a low voice resounds within the nothingness——you’ve returned, you’ve returned!
+    <t xml:space="preserve">As she steps towards the deep sky, the scenery instantly changes, and a low voice resounds within the nothingness——you've returned, you've returned!
 </t>
   </si>
   <si>
@@ -168,7 +168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The wild beast looks upon her with a benevolent gaze, as if responding to one’s own descendant. Ceobe suddenly smells the scent of intertwining bloodlines. She is struck by a sudden realization——She is home.
+    <t xml:space="preserve">The wild beast looks upon her with a benevolent gaze, as if responding to one's own descendant. Ceobe suddenly smells the scent of intertwining bloodlines. She is struck by a sudden realization——She is home.
 </t>
   </si>
   <si>
